--- a/data/trans_bre/P1416-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P1416-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>3.986317240875755</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4.088821943005739</v>
+        <v>4.088821943005744</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.344636685909474</v>
@@ -649,7 +649,7 @@
         <v>0.9411771187213539</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.3623500195141287</v>
+        <v>0.3623500195141292</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.4448262428075542</v>
+        <v>-0.7320656015711526</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.397798033069823</v>
+        <v>1.521252087305949</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.971545329218085</v>
+        <v>2.138631204399938</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.3320149789339484</v>
+        <v>-0.2592836504347862</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.07138093861525192</v>
+        <v>-0.09896430010176253</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.212387086617629</v>
+        <v>0.2436407162135464</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3574010764729195</v>
+        <v>0.3774484595250236</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.02404860435624516</v>
+        <v>-0.02375366482122255</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.043026540368987</v>
+        <v>5.061079809036407</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.085295292591264</v>
+        <v>5.934285739122258</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.883096860862558</v>
+        <v>6.250341348163829</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.12653276804274</v>
+        <v>8.021529477619628</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9849758183231153</v>
+        <v>0.9816625385427117</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.470552112746379</v>
+        <v>1.447932870422916</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.719816219694302</v>
+        <v>1.772956813105094</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.9256502411340987</v>
+        <v>0.8618215026096248</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6295617037908697</v>
+        <v>0.3706381976132996</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4605409632340088</v>
+        <v>0.3803632077108047</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5800699462314609</v>
+        <v>0.6612832718080192</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.150552823335148</v>
+        <v>0.3107814525110603</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.06301155424978366</v>
+        <v>0.03540819028259532</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08339326533037789</v>
+        <v>0.07147180731359425</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08619282058657775</v>
+        <v>0.08218451998502101</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.0113239971906338</v>
+        <v>0.02570090564769541</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.513383881903145</v>
+        <v>5.215942014312461</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.473436694881145</v>
+        <v>4.490944097647791</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.093492238836332</v>
+        <v>5.226917944325423</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.347030947354427</v>
+        <v>5.36592221797695</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8561699937015973</v>
+        <v>0.817587795504378</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.364843211313979</v>
+        <v>1.422694439836522</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.299066859918274</v>
+        <v>1.314665886686067</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.9377346330385792</v>
+        <v>0.870674485184905</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.674244278218272</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.826938839129923</v>
+        <v>1.826938839129925</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4053293014557853</v>
@@ -849,7 +849,7 @@
         <v>0.2879448209490493</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1958767032073922</v>
+        <v>0.1958767032073925</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3772503659798564</v>
+        <v>-0.05400350675149121</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.48048420819508</v>
+        <v>-2.450478145864159</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.8577287593139429</v>
+        <v>-0.7699132765581206</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.9899667027748771</v>
+        <v>-0.8700073590054493</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.04336960170330088</v>
+        <v>-0.009507415704246689</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3525699351517702</v>
+        <v>-0.3606830382123258</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1169930933252999</v>
+        <v>-0.1133178470099956</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.08601179862693359</v>
+        <v>-0.07583084883730531</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.886220984668361</v>
+        <v>4.681744781507563</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.080728427937037</v>
+        <v>2.02352811924583</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.816342593216596</v>
+        <v>4.049569227793323</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.463140164073893</v>
+        <v>4.55445181331134</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9874249034500469</v>
+        <v>0.9089779460677339</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4207129615670267</v>
+        <v>0.4224088996646733</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.789544111245013</v>
+        <v>0.8542322647941942</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.5896215850734737</v>
+        <v>0.5911191859477645</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>2.85648562579706</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.7930582314913975</v>
+        <v>0.7930582314913961</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7315536811322149</v>
@@ -949,7 +949,7 @@
         <v>0.5468110226818191</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.06612696351630681</v>
+        <v>0.06612696351630669</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6036397361688229</v>
+        <v>1.024646018812651</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.8462878449449275</v>
+        <v>-0.6770451687747383</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.9191726283698</v>
+        <v>-0.6784108855482284</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.199122933746363</v>
+        <v>-2.46813492726531</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.01832439483482236</v>
+        <v>0.1034819220337385</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1296202814754416</v>
+        <v>-0.1151854006444599</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1610365389449934</v>
+        <v>-0.1118118963784638</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1673254314820529</v>
+        <v>-0.1705231179760156</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>9.479754086591635</v>
+        <v>9.211070147919134</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.892817417805009</v>
+        <v>6.022332518448956</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.106626185395525</v>
+        <v>6.288754534725076</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.854956171605544</v>
+        <v>3.907602657475557</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.87227510352085</v>
+        <v>1.733151347975017</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.515569864586892</v>
+        <v>1.561027189639864</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.669526238945288</v>
+        <v>1.678971430620986</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3877806020822263</v>
+        <v>0.384382423654558</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.489706615342613</v>
+        <v>1.353498357702375</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9896161476704983</v>
+        <v>1.049927582177883</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.751711025736356</v>
+        <v>1.74056545945362</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5877449264808777</v>
+        <v>0.5350220203758772</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2023253534393077</v>
+        <v>0.1628557806135198</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1737636562950815</v>
+        <v>0.1745768885586531</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.316370591734634</v>
+        <v>0.3198898247734659</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.05274850736717217</v>
+        <v>0.04856905970437054</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.11752608499945</v>
+        <v>4.216011472772601</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.354710536537261</v>
+        <v>3.532392932928652</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.094097833266173</v>
+        <v>4.147869861778754</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.602452926607497</v>
+        <v>3.679869218208147</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.6860195970531952</v>
+        <v>0.6657527940860732</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7297720805777276</v>
+        <v>0.7535943695738394</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9199503247601897</v>
+        <v>0.9429016223509075</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.4114343489299839</v>
+        <v>0.4135197948873862</v>
       </c>
     </row>
     <row r="19">
